--- a/flows/COWZ_fund_flow_data.xlsx
+++ b/flows/COWZ_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1804"/>
+  <dimension ref="A1:B1827"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18475,6 +18475,236 @@
         <v>25.9332</v>
       </c>
     </row>
+    <row r="1805">
+      <c r="A1805" t="inlineStr">
+        <is>
+          <t>2024-02-15</t>
+        </is>
+      </c>
+      <c r="B1805" t="n">
+        <v>20.90212</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806" t="inlineStr">
+        <is>
+          <t>2024-02-16</t>
+        </is>
+      </c>
+      <c r="B1806" t="n">
+        <v>15.94656</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807" t="inlineStr">
+        <is>
+          <t>2024-02-19</t>
+        </is>
+      </c>
+      <c r="B1807" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808" t="inlineStr">
+        <is>
+          <t>2024-02-20</t>
+        </is>
+      </c>
+      <c r="B1808" t="n">
+        <v>10.55762</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1809" t="n">
+        <v>36.73145</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1810" t="n">
+        <v>29.140816</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1811" t="n">
+        <v>13.37175</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1812" t="n">
+        <v>21.43664</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1813" t="n">
+        <v>64.36116</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1814" t="n">
+        <v>10.75228</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1815" t="n">
+        <v>69.79934</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1816" t="n">
+        <v>24.30477</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1817" t="n">
+        <v>51.7959</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1818" t="n">
+        <v>29.887606</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1819" t="n">
+        <v>38.00839</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1820" t="n">
+        <v>19.117805</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1821" t="n">
+        <v>-60.68227</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1822" t="n">
+        <v>-60.68227</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1823" t="n">
+        <v>5.52879</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1824" t="n">
+        <v>27.77645</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1825" t="n">
+        <v>-14.0282</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1826" t="n">
+        <v>3370.7708</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B1827" t="n">
+        <v>-3376.3738</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
